--- a/Prototype/Test/test diaries/2019.05.05/05.05.2019 - Exp Result.xlsx
+++ b/Prototype/Test/test diaries/2019.05.05/05.05.2019 - Exp Result.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Full yük ısınma" sheetId="1" r:id="rId1"/>
     <sheet name="yuk azaltma" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -282,6 +282,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6CE-40B7-B06E-7A25C2109C10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -350,6 +355,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6CE-40B7-B06E-7A25C2109C10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -404,7 +414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="175462864"/>
@@ -463,7 +473,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177578384"/>
@@ -504,7 +514,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -516,7 +526,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -556,7 +566,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -642,6 +652,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F73-4F95-AF1B-E59847248C8C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -709,7 +724,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="304064704"/>
@@ -771,7 +786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="304064144"/>
@@ -812,7 +827,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -824,7 +839,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -946,6 +961,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-194C-45C1-B298-E726D41ED6C1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1050,6 +1070,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-194C-45C1-B298-E726D41ED6C1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1103,7 +1128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="270604752"/>
@@ -1160,7 +1185,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="304859728"/>
@@ -1201,7 +1226,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3684,7 +3709,7 @@
         <v>81.7</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H23" si="0">($J$3-25)*(1-EXP(-A3/$J$2))+25</f>
+        <f t="shared" ref="H3:H22" si="0">($J$3-25)*(1-EXP(-A3/$J$2))+25</f>
         <v>41.157715297294011</v>
       </c>
       <c r="I3" t="s">
@@ -3876,7 +3901,7 @@
         <v>75</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:E23" si="1">A15-60</f>
+        <f t="shared" ref="E15:E22" si="1">A15-60</f>
         <v>1</v>
       </c>
       <c r="F15">
@@ -3884,7 +3909,7 @@
         <v>75</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:G23" si="3">($F$3-$O$3)*EXP(-E15/$O$2)+$O$3</f>
+        <f t="shared" ref="G15:G22" si="3">($F$3-$O$3)*EXP(-E15/$O$2)+$O$3</f>
         <v>80.622966650028019</v>
       </c>
       <c r="H15" s="1">

--- a/Prototype/Test/test diaries/2019.05.05/05.05.2019 - Exp Result.xlsx
+++ b/Prototype/Test/test diaries/2019.05.05/05.05.2019 - Exp Result.xlsx
@@ -414,7 +414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="175462864"/>
@@ -473,7 +473,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177578384"/>
@@ -514,7 +514,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -566,7 +566,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="tr-TR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -724,7 +724,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="304064704"/>
@@ -786,7 +786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="304064144"/>
@@ -827,7 +827,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1128,7 +1128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="270604752"/>
@@ -1185,7 +1185,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="304859728"/>
@@ -1226,7 +1226,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="tr-TR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3297,7 +3297,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
